--- a/data/Plate_results/First_Plate_Rep6_120820.xlsx
+++ b/data/Plate_results/First_Plate_Rep6_120820.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OD" sheetId="1" state="visible" r:id="rId1"/>
@@ -45091,7 +45091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45114,11 +45114,11 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.5</v>
+        <v>45.49919525137126</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -45129,11 +45129,11 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.49919525137126</v>
+        <v>41.0056593729657</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -45144,11 +45144,11 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.0056593729657</v>
+        <v>25.59663868543897</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -45159,11 +45159,11 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25.59663868543897</v>
+        <v>31.60815417155116</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -45174,11 +45174,11 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.60815417155116</v>
+        <v>43.64179441911084</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -45189,11 +45189,11 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.64179441911084</v>
+        <v>21.75047081688002</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -45204,11 +45204,11 @@
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.75047081688002</v>
+        <v>37.07551301868446</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -45219,41 +45219,41 @@
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37.07551301868446</v>
+        <v>124.0248226950355</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Correct value</t>
+          <t>Possibly an empty well</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>124.0248226950355</v>
+        <v>44.86242214130015</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Possibly an empty well</t>
+          <t>Correct value</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.86242214130015</v>
+        <v>22.76012919790244</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -45264,11 +45264,11 @@
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.76012919790244</v>
+        <v>40.48781949374964</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -45279,11 +45279,11 @@
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.48781949374964</v>
+        <v>38.64229222547026</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -45294,11 +45294,11 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.64229222547026</v>
+        <v>38.3561007755377</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -45309,11 +45309,11 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.3561007755377</v>
+        <v>42.4834420974001</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -45324,11 +45324,11 @@
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.4834420974001</v>
+        <v>33.95106551409062</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -45339,11 +45339,11 @@
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.95106551409062</v>
+        <v>20.52166260273941</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -45354,11 +45354,11 @@
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.52166260273941</v>
+        <v>30.02871933830113</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -45369,11 +45369,11 @@
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.02871933830113</v>
+        <v>28.55279297568312</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -45384,11 +45384,11 @@
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>28.55279297568312</v>
+        <v>26.74270768925426</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -45399,11 +45399,11 @@
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>26.74270768925426</v>
+        <v>23.84485628390066</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -45414,11 +45414,11 @@
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>B9</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>23.84485628390066</v>
+        <v>32.8096863262367</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -45429,11 +45429,11 @@
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>B9</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>32.8096863262367</v>
+        <v>21.2807354845805</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -45444,11 +45444,11 @@
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21.2807354845805</v>
+        <v>30.05403220142631</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -45459,11 +45459,11 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.05403220142631</v>
+        <v>14.43877783742039</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -45474,11 +45474,11 @@
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14.43877783742039</v>
+        <v>25.04273480669639</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -45489,11 +45489,11 @@
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>25.04273480669639</v>
+        <v>36.01555837847806</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -45504,11 +45504,11 @@
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.01555837847806</v>
+        <v>15.74044260615616</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -45519,11 +45519,11 @@
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15.74044260615616</v>
+        <v>5.929185646407043</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -45534,11 +45534,11 @@
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5.929185646407043</v>
+        <v>7.12115253597891</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -45549,11 +45549,11 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>C6</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.12115253597891</v>
+        <v>6.877885844723453</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -45564,11 +45564,11 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.877885844723453</v>
+        <v>5.118224693120737</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -45579,11 +45579,11 @@
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>C8</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.118224693120737</v>
+        <v>6.942003105156564</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -45594,11 +45594,11 @@
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>C8</t>
+          <t>C9</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.942003105156564</v>
+        <v>16.74172653432738</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -45609,11 +45609,11 @@
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>C9</t>
+          <t>C10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.74172653432738</v>
+        <v>18.81412377860415</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -45624,11 +45624,11 @@
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>C10</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>18.81412377860415</v>
+        <v>22.15106818984807</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -45639,11 +45639,11 @@
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>C12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>22.15106818984807</v>
+        <v>17.69752724506479</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -45654,11 +45654,11 @@
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>C12</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>17.69752724506479</v>
+        <v>25.59000257685708</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -45669,11 +45669,11 @@
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>25.59000257685708</v>
+        <v>20.17015911462436</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -45684,11 +45684,11 @@
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.17015911462436</v>
+        <v>19.10129243273753</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -45699,11 +45699,11 @@
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.10129243273753</v>
+        <v>18.55424436902219</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -45714,11 +45714,11 @@
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>18.55424436902219</v>
+        <v>27.00864312783671</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -45729,11 +45729,11 @@
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27.00864312783671</v>
+        <v>27.18376512369618</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -45744,11 +45744,11 @@
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>D7</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>27.18376512369618</v>
+        <v>6.138117235626098</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -45759,11 +45759,11 @@
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>D8</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6.138117235626098</v>
+        <v>7.55321493492495</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -45774,11 +45774,11 @@
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>D9</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.55321493492495</v>
+        <v>35.97738114141455</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -45789,11 +45789,11 @@
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>D9</t>
+          <t>D10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>35.97738114141455</v>
+        <v>25.98674254111632</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -45804,11 +45804,11 @@
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>D10</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>25.98674254111632</v>
+        <v>27.17930567037801</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -45819,11 +45819,11 @@
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>27.17930567037801</v>
+        <v>32.49965581240512</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -45834,11 +45834,11 @@
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>32.49965581240512</v>
+        <v>40.07528388261434</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -45849,11 +45849,11 @@
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>40.07528388261434</v>
+        <v>35.29307822894234</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -45864,11 +45864,11 @@
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>35.29307822894234</v>
+        <v>21.86398683780998</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -45879,11 +45879,11 @@
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>21.86398683780998</v>
+        <v>25.32736998669501</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -45894,11 +45894,11 @@
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>25.32736998669501</v>
+        <v>33.09225860404847</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -45909,11 +45909,11 @@
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>33.09225860404847</v>
+        <v>27.59711127951121</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -45924,11 +45924,11 @@
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>27.59711127951121</v>
+        <v>30.73498930719939</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -45939,11 +45939,11 @@
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>30.73498930719939</v>
+        <v>33.90594913494549</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -45954,11 +45954,11 @@
     <row r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>E8</t>
+          <t>E9</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>33.90594913494549</v>
+        <v>32.39627055326555</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -45969,11 +45969,11 @@
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>E9</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>32.39627055326555</v>
+        <v>29.52996421579377</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -45984,11 +45984,11 @@
     <row r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>29.52996421579377</v>
+        <v>35.96949723496118</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -45999,11 +45999,11 @@
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>35.96949723496118</v>
+        <v>14.83476766639003</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -46014,11 +46014,11 @@
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>14.83476766639003</v>
+        <v>45.61229748116561</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -46029,11 +46029,11 @@
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>45.61229748116561</v>
+        <v>33.76434411464432</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -46044,11 +46044,11 @@
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>33.76434411464432</v>
+        <v>13.09979219178646</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -46059,11 +46059,11 @@
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>13.09979219178646</v>
+        <v>7.409401237464669</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -46074,11 +46074,11 @@
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>7.409401237464669</v>
+        <v>9.341978295590518</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -46089,11 +46089,11 @@
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>9.341978295590518</v>
+        <v>4.926234017926366</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -46104,11 +46104,11 @@
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4.926234017926366</v>
+        <v>11.45965442116343</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -46119,11 +46119,11 @@
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>11.45965442116343</v>
+        <v>5.921036839322171</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -46134,11 +46134,11 @@
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5.921036839322171</v>
+        <v>7.82647117721775</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -46149,11 +46149,11 @@
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>F9</t>
+          <t>F10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>7.82647117721775</v>
+        <v>11.52453186043955</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -46164,11 +46164,11 @@
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>F10</t>
+          <t>F11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>11.52453186043955</v>
+        <v>7.78349304537925</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -46179,11 +46179,11 @@
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>F11</t>
+          <t>F12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>7.78349304537925</v>
+        <v>15.70404025006579</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -46194,11 +46194,11 @@
     <row r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>F12</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>15.70404025006579</v>
+        <v>15.02052554530678</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -46209,11 +46209,11 @@
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>G2</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>15.02052554530678</v>
+        <v>9.261140801444048</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -46224,11 +46224,11 @@
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>G2</t>
+          <t>G3</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>9.261140801444048</v>
+        <v>7.718337334734458</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -46239,11 +46239,11 @@
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>G3</t>
+          <t>G4</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>7.718337334734458</v>
+        <v>9.86665476247707</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -46254,11 +46254,11 @@
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>9.86665476247707</v>
+        <v>24.72268537816334</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -46269,11 +46269,11 @@
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>G6</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>24.72268537816334</v>
+        <v>8.528194242680764</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -46284,11 +46284,11 @@
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>G6</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>8.528194242680764</v>
+        <v>4.175176828693494</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -46299,11 +46299,11 @@
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>G7</t>
+          <t>G8</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>4.175176828693494</v>
+        <v>9.820664281208829</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -46314,11 +46314,11 @@
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>G8</t>
+          <t>G9</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>9.820664281208829</v>
+        <v>12.78871537531308</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -46329,11 +46329,11 @@
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>G9</t>
+          <t>G10</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>12.78871537531308</v>
+        <v>12.47164766541529</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -46344,11 +46344,11 @@
     <row r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>G10</t>
+          <t>G11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>12.47164766541529</v>
+        <v>13.19939812056129</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -46359,11 +46359,11 @@
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>G11</t>
+          <t>G12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>13.19939812056129</v>
+        <v>29.00668924846215</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -46374,11 +46374,11 @@
     <row r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>G12</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>29.00668924846215</v>
+        <v>16.04073900149355</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -46389,11 +46389,11 @@
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>H1</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>16.04073900149355</v>
+        <v>25.46675482944269</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -46404,11 +46404,11 @@
     <row r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>25.46675482944269</v>
+        <v>15.86807903906974</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -46419,11 +46419,11 @@
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>15.86807903906974</v>
+        <v>15.87083418388239</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -46434,11 +46434,11 @@
     <row r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>15.87083418388239</v>
+        <v>15.17848438804402</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -46449,11 +46449,11 @@
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>15.17848438804402</v>
+        <v>15.48580286585156</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -46464,11 +46464,11 @@
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>15.48580286585156</v>
+        <v>21.57649178438551</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -46479,11 +46479,11 @@
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>H8</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>21.57649178438551</v>
+        <v>24.66590136104019</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -46494,41 +46494,41 @@
     <row r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>H8</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>24.66590136104019</v>
+        <v>134.7517730496454</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Correct value</t>
+          <t>Possibly an empty well</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>134.7517730496454</v>
+        <v>22.31209324062109</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Possibly an empty well</t>
+          <t>Correct value</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>H10</t>
+          <t>H11</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>22.31209324062109</v>
+        <v>0.9980620155038759</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -46539,28 +46539,13 @@
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>H11</t>
+          <t>H12</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.9980620155038759</v>
+        <v>32.45003946920404</v>
       </c>
       <c r="C97" t="inlineStr">
-        <is>
-          <t>Correct value</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="4" t="inlineStr">
-        <is>
-          <t>H12</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>32.45003946920404</v>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>Correct value</t>
         </is>
